--- a/medicine/Sexualité et sexologie/ISO_3533/ISO_3533.xlsx
+++ b/medicine/Sexualité et sexologie/ISO_3533/ISO_3533.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">ISO 3533 est une norme internationale de l'Organisation internationale de normalisation (ISO). Intitulée Sex Toys – Exigences relatives à la conception et à la sécurité des produits destinés à être mis en contact direct avec les organes génitaux, l’anus ou les deux, elle spécifie les exigences en matière de sécurité et d'information pour ce qui concerne les sex-toys.
 Quoique par extension « sex-toys » puisse parfois s'appliquer à l'ensemble des produits dont la fonction consiste à faciliter, augmenter ou prolonger l'acte sexuel (gels, lubrifiants, huiles de massage, etc.), la norme ISO 3533 exclut les dispositifs médicaux ainsi que les produits cosmétiques ou d'assistance.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette norme naît d'une inquiétude du personnel soignant du Stockholm South General, un hôpital suédois, face au constat d'une recrudescence alarmante des cas de rétention de corps étrangers liés à une mauvaise conception ou à une mauvaise utilisation des sex-toys[1]. À la suite de cette alerte, le SIS (Swedish Institute for Standards) commence l'élaboration d'une norme spécifique visant à garantir la sécurité des utilisateurs et utilisatrices de jouets sexuels. La proposition suédoise conduit l'ANSI à publier un appel à commentaires auprès des acteurs du secteur de l'industrie des produits manufacturés destinés à l'augmentation du plaisir sexuel. La discussion aboutit en 2021 à une première version de la norme, sous le nom d'ISO 3533:2021[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette norme naît d'une inquiétude du personnel soignant du Stockholm South General, un hôpital suédois, face au constat d'une recrudescence alarmante des cas de rétention de corps étrangers liés à une mauvaise conception ou à une mauvaise utilisation des sex-toys. À la suite de cette alerte, le SIS (Swedish Institute for Standards) commence l'élaboration d'une norme spécifique visant à garantir la sécurité des utilisateurs et utilisatrices de jouets sexuels. La proposition suédoise conduit l'ANSI à publier un appel à commentaires auprès des acteurs du secteur de l'industrie des produits manufacturés destinés à l'augmentation du plaisir sexuel. La discussion aboutit en 2021 à une première version de la norme, sous le nom d'ISO 3533:2021.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Exigences (liste non exhaustive)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les exigences de conception reprises dans la norme ISO 3533 visent à réduire autant que possible le risque de blessures des utilisateurs et utilisatrices en cas d'utilisation conforme aux recommandations des sex-toys[3]. Les risques de mauvaises utilisations raisonnablement prévisibles, intentionnelles ou non (par ex. : l'insertion dans l'anus d'un jouet destiné à être mis en contact direct avec les organes génitaux ou les deux) sont également pris en compte. On trouve notamment des recommandations concernant les points suivants :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les exigences de conception reprises dans la norme ISO 3533 visent à réduire autant que possible le risque de blessures des utilisateurs et utilisatrices en cas d'utilisation conforme aux recommandations des sex-toys. Les risques de mauvaises utilisations raisonnablement prévisibles, intentionnelles ou non (par ex. : l'insertion dans l'anus d'un jouet destiné à être mis en contact direct avec les organes génitaux ou les deux) sont également pris en compte. On trouve notamment des recommandations concernant les points suivants :
 Afin d'éviter tout coincement, les produits destinés à être insérés (plugs anaux, billes anales, godemichets...) ou susceptibles d'être utilisés à tort comme tels doivent être conçus de manière à ne pas rester coincés et à pouvoir être extraits aisément et en toute sécurité soit par l'utilisateur ou l'utilisatrice même, soit par le personnel médical.
 Les jouets destinés à enserrer ou à contraindre (anneaux péniens, dispositifs dits de chasteté, menottes...) doivent être faciles à ôter en cas d'urgence ou de perte de clés. Pour se libérer, l'utilisation éventuelle d'outils ménagers courants (pinces) est admise, mais le recours à des outils électriques (perceuse, scie circulaire) est proscrit.
 Les sex-toys doivent être lisses et exempts de bavures ou d’arêtes vives susceptibles de provoquer des coupures.
